--- a/Excel/ARP_LSZT_022025.xlsx
+++ b/Excel/ARP_LSZT_022025.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="E3" s="27" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="F3" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" s="27" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="J3" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K3" s="27" t="n">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="N3" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O3" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C4" s="27" t="n">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E4" s="27" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="F4" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" s="27" t="n">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="I4" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J4" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K4" s="27" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B5" s="27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C5" s="27" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="F5" s="27" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I5" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBYVC</t>
         </is>
       </c>
       <c r="J5" s="27" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="O5" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B6" s="27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C6" s="27" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E6" s="27" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="F6" s="27" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="I6" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J6" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K6" s="27" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="O6" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="E7" s="27" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="F7" s="27" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J7" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K7" s="27" t="n">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="N7" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O7" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1472,12 @@
       </c>
       <c r="E8" s="27" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="F8" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" s="27" t="n">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="I8" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBYVC</t>
         </is>
       </c>
       <c r="J8" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K8" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="27" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O8" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="I9" s="27" t="inlineStr">
         <is>
-          <t>HBYVC</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J9" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K9" s="27" t="n">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="N9" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O9" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G10" s="27" t="n">
@@ -1620,16 +1620,16 @@
       </c>
       <c r="I10" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J10" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K10" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L10" s="27" t="n">
         <v>0</v>
@@ -1642,11 +1642,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O10" s="27" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
+      <c r="O10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
@@ -1667,12 +1663,12 @@
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" s="27" t="n">
@@ -1685,12 +1681,12 @@
       </c>
       <c r="I11" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J11" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K11" s="27" t="n">
@@ -1732,12 +1728,12 @@
       </c>
       <c r="E12" s="27" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="F12" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G12" s="27" t="n">
@@ -1759,7 +1755,7 @@
         </is>
       </c>
       <c r="K12" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="27" t="n">
         <v>0</v>
@@ -1772,11 +1768,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O12" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
@@ -1797,12 +1789,12 @@
       </c>
       <c r="E13" s="27" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="F13" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" s="27" t="n">
@@ -1815,7 +1807,7 @@
       </c>
       <c r="I13" s="27" t="inlineStr">
         <is>
-          <t>HBYVC</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J13" s="27" t="inlineStr">
@@ -1834,7 +1826,7 @@
       </c>
       <c r="N13" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O13" s="27" t="inlineStr">
@@ -1862,12 +1854,12 @@
       </c>
       <c r="E14" s="27" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="F14" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" s="27" t="n">
@@ -1880,12 +1872,12 @@
       </c>
       <c r="I14" s="27" t="inlineStr">
         <is>
-          <t>HBYVC</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J14" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K14" s="27" t="n">
@@ -1927,12 +1919,12 @@
       </c>
       <c r="E15" s="27" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="F15" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G15" s="27" t="n">
@@ -1945,7 +1937,7 @@
       </c>
       <c r="I15" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J15" s="27" t="inlineStr">
@@ -1954,7 +1946,7 @@
         </is>
       </c>
       <c r="K15" s="27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>0</v>
@@ -1967,11 +1959,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O15" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
@@ -1992,12 +1980,12 @@
       </c>
       <c r="E16" s="27" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="F16" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" s="27" t="n">
@@ -2010,16 +1998,16 @@
       </c>
       <c r="I16" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J16" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K16" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L16" s="27" t="n">
         <v>0</v>
@@ -2034,7 +2022,7 @@
       </c>
       <c r="O16" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2034,7 @@
       </c>
       <c r="B17" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C17" s="27" t="n">
@@ -2057,7 +2045,7 @@
       </c>
       <c r="E17" s="27" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="F17" s="27" t="inlineStr">
@@ -2075,7 +2063,7 @@
       </c>
       <c r="I17" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J17" s="27" t="inlineStr">
@@ -2099,7 +2087,7 @@
       </c>
       <c r="O17" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2099,7 @@
       </c>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C18" s="27" t="n">
@@ -2122,12 +2110,12 @@
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" s="27" t="n">
@@ -2140,7 +2128,7 @@
       </c>
       <c r="I18" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J18" s="27" t="inlineStr">
@@ -2176,7 +2164,7 @@
       </c>
       <c r="B19" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C19" s="27" t="n">
@@ -2187,12 +2175,12 @@
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" s="27" t="n">
@@ -2210,11 +2198,11 @@
       </c>
       <c r="J19" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K19" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="27" t="n">
         <v>0</v>
@@ -2224,12 +2212,12 @@
       </c>
       <c r="N19" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O19" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2229,7 @@
       </c>
       <c r="B20" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C20" s="27" t="n">
@@ -2252,7 +2240,7 @@
       </c>
       <c r="E20" s="27" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="F20" s="27" t="inlineStr">
@@ -2270,7 +2258,7 @@
       </c>
       <c r="I20" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J20" s="27" t="inlineStr">
@@ -2306,7 +2294,7 @@
       </c>
       <c r="B21" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C21" s="27" t="n">
@@ -2317,12 +2305,12 @@
       </c>
       <c r="E21" s="27" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="F21" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" s="27" t="n">
@@ -2335,12 +2323,12 @@
       </c>
       <c r="I21" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J21" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K21" s="27" t="n">
@@ -2359,7 +2347,7 @@
       </c>
       <c r="O21" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2359,7 @@
       </c>
       <c r="B22" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C22" s="27" t="n">
@@ -2382,12 +2370,12 @@
       </c>
       <c r="E22" s="27" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="F22" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" s="27" t="n">
@@ -2400,7 +2388,7 @@
       </c>
       <c r="I22" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J22" s="27" t="inlineStr">
@@ -2409,7 +2397,7 @@
         </is>
       </c>
       <c r="K22" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" s="27" t="n">
         <v>0</v>
@@ -2424,7 +2412,7 @@
       </c>
       <c r="O22" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2424,7 @@
       </c>
       <c r="B23" s="27" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C23" s="27" t="n">
@@ -2447,12 +2435,12 @@
       </c>
       <c r="E23" s="27" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="F23" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G23" s="27" t="n">
@@ -2465,12 +2453,12 @@
       </c>
       <c r="I23" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J23" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K23" s="27" t="n">
@@ -2489,7 +2477,7 @@
       </c>
       <c r="O23" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2500,7 @@
       </c>
       <c r="E24" s="27" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="F24" s="27" t="inlineStr">
@@ -2530,12 +2518,12 @@
       </c>
       <c r="I24" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J24" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K24" s="27" t="n">
@@ -2577,12 +2565,12 @@
       </c>
       <c r="E25" s="27" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1452</t>
         </is>
       </c>
       <c r="F25" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" s="27" t="n">
@@ -2600,7 +2588,7 @@
       </c>
       <c r="J25" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K25" s="27" t="n">
@@ -2619,7 +2607,7 @@
       </c>
       <c r="O25" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2630,7 @@
       </c>
       <c r="E26" s="27" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="F26" s="27" t="inlineStr">
@@ -2660,7 +2648,7 @@
       </c>
       <c r="I26" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J26" s="27" t="inlineStr">
@@ -2684,7 +2672,7 @@
       </c>
       <c r="O26" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2695,12 @@
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G27" s="27" t="n">
@@ -2725,7 +2713,7 @@
       </c>
       <c r="I27" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J27" s="27" t="inlineStr">
@@ -2744,7 +2732,7 @@
       </c>
       <c r="N27" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O27" s="27" t="inlineStr">
@@ -2772,12 +2760,12 @@
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G28" s="27" t="n">
@@ -2790,12 +2778,12 @@
       </c>
       <c r="I28" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J28" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K28" s="27" t="n">
@@ -2809,12 +2797,12 @@
       </c>
       <c r="N28" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O28" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2814,7 @@
       </c>
       <c r="B29" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C29" s="27" t="n">
@@ -2837,12 +2825,12 @@
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G29" s="27" t="n">
@@ -2855,7 +2843,7 @@
       </c>
       <c r="I29" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J29" s="27" t="inlineStr">
@@ -2891,7 +2879,7 @@
       </c>
       <c r="B30" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C30" s="27" t="n">
@@ -2902,7 +2890,7 @@
       </c>
       <c r="E30" s="27" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="F30" s="27" t="inlineStr">
@@ -2920,7 +2908,7 @@
       </c>
       <c r="I30" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J30" s="27" t="inlineStr">
@@ -2944,7 +2932,7 @@
       </c>
       <c r="O30" s="27" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2944,7 @@
       </c>
       <c r="B31" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C31" s="27" t="n">
@@ -2967,7 +2955,7 @@
       </c>
       <c r="E31" s="27" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="F31" s="27" t="inlineStr">
@@ -2990,7 +2978,7 @@
       </c>
       <c r="J31" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K31" s="27" t="n">
@@ -3004,7 +2992,7 @@
       </c>
       <c r="N31" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O31" s="27" t="inlineStr">
@@ -3021,7 +3009,7 @@
       </c>
       <c r="B32" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C32" s="27" t="n">
@@ -3032,12 +3020,12 @@
       </c>
       <c r="E32" s="27" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="F32" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G32" s="27" t="n">
@@ -3050,12 +3038,12 @@
       </c>
       <c r="I32" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J32" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K32" s="27" t="n">
@@ -3069,12 +3057,12 @@
       </c>
       <c r="N32" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O32" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3074,7 @@
       </c>
       <c r="B33" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C33" s="27" t="n">
@@ -3097,7 +3085,7 @@
       </c>
       <c r="E33" s="27" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="F33" s="27" t="inlineStr">
@@ -3115,7 +3103,7 @@
       </c>
       <c r="I33" s="27" t="inlineStr">
         <is>
-          <t>HBETG</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J33" s="27" t="inlineStr">
@@ -3134,12 +3122,12 @@
       </c>
       <c r="N33" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O33" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3139,7 @@
       </c>
       <c r="B34" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C34" s="27" t="n">
@@ -3167,7 +3155,7 @@
       </c>
       <c r="F34" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G34" s="27" t="n">
@@ -3185,7 +3173,7 @@
       </c>
       <c r="J34" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K34" s="27" t="n">
@@ -3204,7 +3192,7 @@
       </c>
       <c r="O34" s="27" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3204,7 @@
       </c>
       <c r="B35" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C35" s="27" t="n">
@@ -3227,12 +3215,12 @@
       </c>
       <c r="E35" s="27" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F35" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G35" s="27" t="n">
@@ -3245,7 +3233,7 @@
       </c>
       <c r="I35" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J35" s="27" t="inlineStr">
@@ -3264,12 +3252,12 @@
       </c>
       <c r="N35" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O35" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3269,7 @@
       </c>
       <c r="B36" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C36" s="27" t="n">
@@ -3292,7 +3280,7 @@
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
@@ -3334,7 +3322,7 @@
       </c>
       <c r="O36" s="27" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3334,7 @@
       </c>
       <c r="B37" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C37" s="27" t="n">
@@ -3357,7 +3345,7 @@
       </c>
       <c r="E37" s="27" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="F37" s="27" t="inlineStr">
@@ -3375,7 +3363,7 @@
       </c>
       <c r="I37" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J37" s="27" t="inlineStr">
@@ -3399,7 +3387,7 @@
       </c>
       <c r="O37" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3399,7 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" s="27" t="n">
@@ -3422,7 +3410,7 @@
       </c>
       <c r="E38" s="27" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="F38" s="27" t="inlineStr">
@@ -3440,12 +3428,12 @@
       </c>
       <c r="I38" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J38" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K38" s="27" t="n">
@@ -3464,7 +3452,7 @@
       </c>
       <c r="O38" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3464,7 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C39" s="27" t="n">
@@ -3487,7 +3475,7 @@
       </c>
       <c r="E39" s="27" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>0945</t>
         </is>
       </c>
       <c r="F39" s="27" t="inlineStr">
@@ -3505,7 +3493,7 @@
       </c>
       <c r="I39" s="27" t="inlineStr">
         <is>
-          <t>HBETG</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J39" s="27" t="inlineStr">
@@ -3541,7 +3529,7 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C40" s="27" t="n">
@@ -3552,12 +3540,12 @@
       </c>
       <c r="E40" s="27" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="F40" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G40" s="27" t="n">
@@ -3570,16 +3558,16 @@
       </c>
       <c r="I40" s="27" t="inlineStr">
         <is>
-          <t>HBETG</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J40" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K40" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L40" s="27" t="n">
         <v>0</v>
@@ -3592,11 +3580,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O40" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
@@ -3606,7 +3590,7 @@
       </c>
       <c r="B41" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C41" s="27" t="n">
@@ -3617,12 +3601,12 @@
       </c>
       <c r="E41" s="27" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="F41" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G41" s="27" t="n">
@@ -3635,7 +3619,7 @@
       </c>
       <c r="I41" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J41" s="27" t="inlineStr">
@@ -3659,7 +3643,7 @@
       </c>
       <c r="O41" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3655,7 @@
       </c>
       <c r="B42" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C42" s="27" t="n">
@@ -3682,12 +3666,12 @@
       </c>
       <c r="E42" s="27" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="F42" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G42" s="27" t="n">
@@ -3700,7 +3684,7 @@
       </c>
       <c r="I42" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J42" s="27" t="inlineStr">
@@ -3736,7 +3720,7 @@
       </c>
       <c r="B43" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C43" s="27" t="n">
@@ -3747,12 +3731,12 @@
       </c>
       <c r="E43" s="27" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="F43" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G43" s="27" t="n">
@@ -3765,7 +3749,7 @@
       </c>
       <c r="I43" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J43" s="27" t="inlineStr">
@@ -3774,7 +3758,7 @@
         </is>
       </c>
       <c r="K43" s="27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L43" s="27" t="n">
         <v>0</v>
@@ -3787,11 +3771,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O43" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
@@ -3801,7 +3781,7 @@
       </c>
       <c r="B44" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C44" s="27" t="n">
@@ -3812,12 +3792,12 @@
       </c>
       <c r="E44" s="27" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="F44" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G44" s="27" t="n">
@@ -3835,7 +3815,7 @@
       </c>
       <c r="J44" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K44" s="27" t="n">
@@ -3854,7 +3834,7 @@
       </c>
       <c r="O44" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3846,7 @@
       </c>
       <c r="B45" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C45" s="27" t="n">
@@ -3877,12 +3857,12 @@
       </c>
       <c r="E45" s="27" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="F45" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G45" s="27" t="n">
@@ -3919,7 +3899,7 @@
       </c>
       <c r="O45" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3911,7 @@
       </c>
       <c r="B46" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C46" s="27" t="n">
@@ -3942,7 +3922,7 @@
       </c>
       <c r="E46" s="27" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="F46" s="27" t="inlineStr">
@@ -3960,12 +3940,12 @@
       </c>
       <c r="I46" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J46" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K46" s="27" t="n">
@@ -3996,7 +3976,7 @@
       </c>
       <c r="B47" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C47" s="27" t="n">
@@ -4007,7 +3987,7 @@
       </c>
       <c r="E47" s="27" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="F47" s="27" t="inlineStr">
@@ -4025,12 +4005,12 @@
       </c>
       <c r="I47" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J47" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K47" s="27" t="n">
@@ -4044,7 +4024,7 @@
       </c>
       <c r="N47" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O47" s="27" t="inlineStr">
@@ -4061,7 +4041,7 @@
       </c>
       <c r="B48" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C48" s="27" t="n">
@@ -4072,12 +4052,12 @@
       </c>
       <c r="E48" s="27" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="F48" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G48" s="27" t="n">
@@ -4090,7 +4070,7 @@
       </c>
       <c r="I48" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J48" s="27" t="inlineStr">
@@ -4114,7 +4094,7 @@
       </c>
       <c r="O48" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4106,7 @@
       </c>
       <c r="B49" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C49" s="27" t="n">
@@ -4137,12 +4117,12 @@
       </c>
       <c r="E49" s="27" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="F49" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G49" s="27" t="n">
@@ -4155,16 +4135,16 @@
       </c>
       <c r="I49" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J49" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K49" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L49" s="27" t="n">
         <v>0</v>
@@ -4177,11 +4157,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O49" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O49" s="27" t="inlineStr"/>
     </row>
     <row r="50" s="20">
       <c r="A50" s="27" t="inlineStr">
@@ -4191,7 +4167,7 @@
       </c>
       <c r="B50" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C50" s="27" t="n">
@@ -4202,7 +4178,7 @@
       </c>
       <c r="E50" s="27" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="F50" s="27" t="inlineStr">
@@ -4220,12 +4196,12 @@
       </c>
       <c r="I50" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J50" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K50" s="27" t="n">
@@ -4256,7 +4232,7 @@
       </c>
       <c r="B51" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C51" s="27" t="n">
@@ -4267,12 +4243,12 @@
       </c>
       <c r="E51" s="27" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1637</t>
         </is>
       </c>
       <c r="F51" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G51" s="27" t="n">
@@ -4285,16 +4261,16 @@
       </c>
       <c r="I51" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J51" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K51" s="27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L51" s="27" t="n">
         <v>0</v>
@@ -4307,11 +4283,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O51" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O51" s="27" t="inlineStr"/>
     </row>
     <row r="52" s="20">
       <c r="A52" s="27" t="inlineStr">
@@ -4321,7 +4293,7 @@
       </c>
       <c r="B52" s="27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C52" s="27" t="n">
@@ -4332,7 +4304,7 @@
       </c>
       <c r="E52" s="27" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="F52" s="27" t="inlineStr">
@@ -4350,7 +4322,7 @@
       </c>
       <c r="I52" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J52" s="27" t="inlineStr">
@@ -4369,7 +4341,7 @@
       </c>
       <c r="N52" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O52" s="27" t="inlineStr">
@@ -4386,7 +4358,7 @@
       </c>
       <c r="B53" s="27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" s="27" t="n">
@@ -4397,7 +4369,7 @@
       </c>
       <c r="E53" s="27" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="F53" s="27" t="inlineStr">
@@ -4415,12 +4387,12 @@
       </c>
       <c r="I53" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J53" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K53" s="27" t="n">
@@ -4434,12 +4406,12 @@
       </c>
       <c r="N53" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O53" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4423,7 @@
       </c>
       <c r="B54" s="27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C54" s="27" t="n">
@@ -4462,12 +4434,12 @@
       </c>
       <c r="E54" s="27" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F54" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G54" s="27" t="n">
@@ -4480,16 +4452,16 @@
       </c>
       <c r="I54" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J54" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K54" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" s="27" t="n">
         <v>0</v>
@@ -4504,7 +4476,7 @@
       </c>
       <c r="O54" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4488,7 @@
       </c>
       <c r="B55" s="27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="27" t="n">
@@ -4527,12 +4499,12 @@
       </c>
       <c r="E55" s="27" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="F55" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G55" s="27" t="n">
@@ -4545,7 +4517,7 @@
       </c>
       <c r="I55" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J55" s="27" t="inlineStr">
@@ -4554,7 +4526,7 @@
         </is>
       </c>
       <c r="K55" s="27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" s="27" t="n">
         <v>0</v>
@@ -4564,14 +4536,10 @@
       </c>
       <c r="N55" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O55" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>LSZT</t>
+        </is>
+      </c>
+      <c r="O55" s="27" t="inlineStr"/>
     </row>
     <row r="56" s="20">
       <c r="A56" s="27" t="inlineStr">
@@ -4581,7 +4549,7 @@
       </c>
       <c r="B56" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" s="27" t="n">
@@ -4592,12 +4560,12 @@
       </c>
       <c r="E56" s="27" t="inlineStr">
         <is>
-          <t>0945</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="F56" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G56" s="27" t="n">
@@ -4610,16 +4578,16 @@
       </c>
       <c r="I56" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J56" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K56" s="27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L56" s="27" t="n">
         <v>0</v>
@@ -4632,11 +4600,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O56" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O56" s="27" t="inlineStr"/>
     </row>
     <row r="57" s="20">
       <c r="A57" s="27" t="inlineStr">
@@ -4646,7 +4610,7 @@
       </c>
       <c r="B57" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" s="27" t="n">
@@ -4657,12 +4621,12 @@
       </c>
       <c r="E57" s="27" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="F57" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G57" s="27" t="n">
@@ -4680,11 +4644,11 @@
       </c>
       <c r="J57" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K57" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L57" s="27" t="n">
         <v>0</v>
@@ -4699,7 +4663,7 @@
       </c>
       <c r="O57" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4675,7 @@
       </c>
       <c r="B58" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C58" s="27" t="n">
@@ -4722,7 +4686,7 @@
       </c>
       <c r="E58" s="27" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="F58" s="27" t="inlineStr">
@@ -4740,7 +4704,7 @@
       </c>
       <c r="I58" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBKLA</t>
         </is>
       </c>
       <c r="J58" s="27" t="inlineStr">
@@ -4764,7 +4728,7 @@
       </c>
       <c r="O58" s="27" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4740,7 @@
       </c>
       <c r="B59" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" s="27" t="n">
@@ -4787,7 +4751,7 @@
       </c>
       <c r="E59" s="27" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="F59" s="27" t="inlineStr">
@@ -4841,7 +4805,7 @@
       </c>
       <c r="B60" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" s="27" t="n">
@@ -4852,7 +4816,7 @@
       </c>
       <c r="E60" s="27" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="F60" s="27" t="inlineStr">
@@ -4875,7 +4839,7 @@
       </c>
       <c r="J60" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K60" s="27" t="n">
@@ -4892,11 +4856,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O60" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="O60" s="27" t="inlineStr"/>
     </row>
     <row r="61" s="20">
       <c r="A61" s="27" t="inlineStr">
@@ -4906,7 +4866,7 @@
       </c>
       <c r="B61" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="27" t="n">
@@ -4917,12 +4877,12 @@
       </c>
       <c r="E61" s="27" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="F61" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G61" s="27" t="n">
@@ -4944,7 +4904,7 @@
         </is>
       </c>
       <c r="K61" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" s="27" t="n">
         <v>0</v>
@@ -4954,12 +4914,12 @@
       </c>
       <c r="N61" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O61" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4931,7 @@
       </c>
       <c r="B62" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" s="27" t="n">
@@ -4982,7 +4942,7 @@
       </c>
       <c r="E62" s="27" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="F62" s="27" t="inlineStr">
@@ -5000,7 +4960,7 @@
       </c>
       <c r="I62" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBYVC</t>
         </is>
       </c>
       <c r="J62" s="27" t="inlineStr">
@@ -5036,7 +4996,7 @@
       </c>
       <c r="B63" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" s="27" t="n">
@@ -5047,7 +5007,7 @@
       </c>
       <c r="E63" s="27" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="F63" s="27" t="inlineStr">
@@ -5065,7 +5025,7 @@
       </c>
       <c r="I63" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J63" s="27" t="inlineStr">
@@ -5084,12 +5044,12 @@
       </c>
       <c r="N63" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O63" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5061,7 @@
       </c>
       <c r="B64" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="27" t="n">
@@ -5112,12 +5072,12 @@
       </c>
       <c r="E64" s="27" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="F64" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G64" s="27" t="n">
@@ -5130,7 +5090,7 @@
       </c>
       <c r="I64" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J64" s="27" t="inlineStr">
@@ -5149,7 +5109,7 @@
       </c>
       <c r="N64" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O64" s="27" t="inlineStr">
@@ -5166,7 +5126,7 @@
       </c>
       <c r="B65" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" s="27" t="n">
@@ -5182,7 +5142,7 @@
       </c>
       <c r="F65" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G65" s="27" t="n">
@@ -5195,7 +5155,7 @@
       </c>
       <c r="I65" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J65" s="27" t="inlineStr">
@@ -5204,7 +5164,7 @@
         </is>
       </c>
       <c r="K65" s="27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" s="27" t="n">
         <v>0</v>
@@ -5217,11 +5177,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O65" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="27" t="inlineStr">
@@ -5231,7 +5187,7 @@
       </c>
       <c r="B66" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" s="27" t="n">
@@ -5242,12 +5198,12 @@
       </c>
       <c r="E66" s="27" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="F66" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G66" s="27" t="n">
@@ -5260,7 +5216,7 @@
       </c>
       <c r="I66" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J66" s="27" t="inlineStr">
@@ -5296,7 +5252,7 @@
       </c>
       <c r="B67" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" s="27" t="n">
@@ -5307,7 +5263,7 @@
       </c>
       <c r="E67" s="27" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="F67" s="27" t="inlineStr">
@@ -5325,12 +5281,12 @@
       </c>
       <c r="I67" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J67" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K67" s="27" t="n">
@@ -5344,12 +5300,12 @@
       </c>
       <c r="N67" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O67" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5317,7 @@
       </c>
       <c r="B68" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="27" t="n">
@@ -5372,12 +5328,12 @@
       </c>
       <c r="E68" s="27" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="F68" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G68" s="27" t="n">
@@ -5390,7 +5346,7 @@
       </c>
       <c r="I68" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J68" s="27" t="inlineStr">
@@ -5399,7 +5355,7 @@
         </is>
       </c>
       <c r="K68" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L68" s="27" t="n">
         <v>0</v>
@@ -5414,7 +5370,7 @@
       </c>
       <c r="O68" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5382,7 @@
       </c>
       <c r="B69" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" s="27" t="n">
@@ -5437,12 +5393,12 @@
       </c>
       <c r="E69" s="27" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="F69" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G69" s="27" t="n">
@@ -5464,7 +5420,7 @@
         </is>
       </c>
       <c r="K69" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L69" s="27" t="n">
         <v>0</v>
@@ -5477,11 +5433,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O69" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="27" t="inlineStr">
@@ -5491,7 +5443,7 @@
       </c>
       <c r="B70" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" s="27" t="n">
@@ -5502,12 +5454,12 @@
       </c>
       <c r="E70" s="27" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="F70" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G70" s="27" t="n">
@@ -5520,7 +5472,7 @@
       </c>
       <c r="I70" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J70" s="27" t="inlineStr">
@@ -5529,7 +5481,7 @@
         </is>
       </c>
       <c r="K70" s="27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L70" s="27" t="n">
         <v>0</v>
@@ -5542,11 +5494,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O70" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="27" t="inlineStr">
@@ -5556,7 +5504,7 @@
       </c>
       <c r="B71" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" s="27" t="n">
@@ -5567,12 +5515,12 @@
       </c>
       <c r="E71" s="27" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="F71" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G71" s="27" t="n">
@@ -5585,7 +5533,7 @@
       </c>
       <c r="I71" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBWYC</t>
         </is>
       </c>
       <c r="J71" s="27" t="inlineStr">
@@ -5604,7 +5552,7 @@
       </c>
       <c r="N71" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O71" s="27" t="inlineStr">
@@ -5621,7 +5569,7 @@
       </c>
       <c r="B72" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" s="27" t="n">
@@ -5632,12 +5580,12 @@
       </c>
       <c r="E72" s="27" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="F72" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G72" s="27" t="n">
@@ -5650,7 +5598,7 @@
       </c>
       <c r="I72" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J72" s="27" t="inlineStr">
@@ -5659,7 +5607,7 @@
         </is>
       </c>
       <c r="K72" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L72" s="27" t="n">
         <v>0</v>
@@ -5669,7 +5617,7 @@
       </c>
       <c r="N72" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O72" s="27" t="inlineStr">
@@ -5686,7 +5634,7 @@
       </c>
       <c r="B73" s="27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C73" s="27" t="n">
@@ -5697,12 +5645,12 @@
       </c>
       <c r="E73" s="27" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="F73" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G73" s="27" t="n">
@@ -5715,7 +5663,7 @@
       </c>
       <c r="I73" s="27" t="inlineStr">
         <is>
-          <t>HBKFW</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J73" s="27" t="inlineStr">
@@ -5724,7 +5672,7 @@
         </is>
       </c>
       <c r="K73" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" s="27" t="n">
         <v>0</v>
@@ -5737,11 +5685,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O73" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="27" t="inlineStr">
@@ -5762,12 +5706,12 @@
       </c>
       <c r="E74" s="27" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="F74" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G74" s="27" t="n">
@@ -5780,12 +5724,12 @@
       </c>
       <c r="I74" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J74" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K74" s="27" t="n">
@@ -5799,7 +5743,7 @@
       </c>
       <c r="N74" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O74" s="27" t="inlineStr">
@@ -5827,7 +5771,7 @@
       </c>
       <c r="E75" s="27" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="F75" s="27" t="inlineStr">
@@ -5845,12 +5789,12 @@
       </c>
       <c r="I75" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J75" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K75" s="27" t="n">
@@ -5869,7 +5813,7 @@
       </c>
       <c r="O75" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -5892,12 +5836,12 @@
       </c>
       <c r="E76" s="27" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="F76" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G76" s="27" t="n">
@@ -5910,16 +5854,16 @@
       </c>
       <c r="I76" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J76" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K76" s="27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L76" s="27" t="n">
         <v>0</v>
@@ -5934,7 +5878,7 @@
       </c>
       <c r="O76" s="27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5901,12 @@
       </c>
       <c r="E77" s="27" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="F77" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G77" s="27" t="n">
@@ -5975,16 +5919,16 @@
       </c>
       <c r="I77" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBKLD</t>
         </is>
       </c>
       <c r="J77" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K77" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L77" s="27" t="n">
         <v>0</v>
@@ -6022,7 +5966,7 @@
       </c>
       <c r="E78" s="27" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="F78" s="27" t="inlineStr">
@@ -6040,12 +5984,12 @@
       </c>
       <c r="I78" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J78" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K78" s="27" t="n">
@@ -6064,7 +6008,7 @@
       </c>
       <c r="O78" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6031,7 @@
       </c>
       <c r="E79" s="27" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="F79" s="27" t="inlineStr">
@@ -6105,12 +6049,12 @@
       </c>
       <c r="I79" s="27" t="inlineStr">
         <is>
-          <t>HBKLA</t>
+          <t>HBYVC</t>
         </is>
       </c>
       <c r="J79" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K79" s="27" t="n">
@@ -6124,12 +6068,12 @@
       </c>
       <c r="N79" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O79" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -6152,12 +6096,12 @@
       </c>
       <c r="E80" s="27" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="F80" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G80" s="27" t="n">
@@ -6170,12 +6114,12 @@
       </c>
       <c r="I80" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBKFW</t>
         </is>
       </c>
       <c r="J80" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K80" s="27" t="n">
@@ -6217,7 +6161,7 @@
       </c>
       <c r="E81" s="27" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="F81" s="27" t="inlineStr">
@@ -6235,7 +6179,7 @@
       </c>
       <c r="I81" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J81" s="27" t="inlineStr">
@@ -6244,7 +6188,7 @@
         </is>
       </c>
       <c r="K81" s="27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L81" s="27" t="n">
         <v>0</v>
@@ -6257,11 +6201,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O81" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
+      <c r="O81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="27" t="inlineStr">
@@ -6282,12 +6222,12 @@
       </c>
       <c r="E82" s="27" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="F82" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G82" s="27" t="n">
@@ -6300,7 +6240,7 @@
       </c>
       <c r="I82" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J82" s="27" t="inlineStr">
@@ -6319,7 +6259,7 @@
       </c>
       <c r="N82" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O82" s="27" t="inlineStr">
@@ -6336,7 +6276,7 @@
       </c>
       <c r="B83" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C83" s="27" t="n">
@@ -6347,12 +6287,12 @@
       </c>
       <c r="E83" s="27" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>0916</t>
         </is>
       </c>
       <c r="F83" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G83" s="27" t="n">
@@ -6370,7 +6310,7 @@
       </c>
       <c r="J83" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K83" s="27" t="n">
@@ -6384,7 +6324,7 @@
       </c>
       <c r="N83" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O83" s="27" t="inlineStr">
@@ -6401,7 +6341,7 @@
       </c>
       <c r="B84" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C84" s="27" t="n">
@@ -6412,7 +6352,7 @@
       </c>
       <c r="E84" s="27" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>0948</t>
         </is>
       </c>
       <c r="F84" s="27" t="inlineStr">
@@ -6430,7 +6370,7 @@
       </c>
       <c r="I84" s="27" t="inlineStr">
         <is>
-          <t>HBYVC</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J84" s="27" t="inlineStr">
@@ -6449,7 +6389,7 @@
       </c>
       <c r="N84" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O84" s="27" t="inlineStr">
@@ -6466,7 +6406,7 @@
       </c>
       <c r="B85" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C85" s="27" t="n">
@@ -6477,12 +6417,12 @@
       </c>
       <c r="E85" s="27" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>0948</t>
         </is>
       </c>
       <c r="F85" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G85" s="27" t="n">
@@ -6495,16 +6435,16 @@
       </c>
       <c r="I85" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J85" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K85" s="27" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L85" s="27" t="n">
         <v>0</v>
@@ -6517,11 +6457,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O85" s="27" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
+      <c r="O85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="27" t="inlineStr">
@@ -6531,7 +6467,7 @@
       </c>
       <c r="B86" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C86" s="27" t="n">
@@ -6542,7 +6478,7 @@
       </c>
       <c r="E86" s="27" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="F86" s="27" t="inlineStr">
@@ -6560,12 +6496,12 @@
       </c>
       <c r="I86" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J86" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K86" s="27" t="n">
@@ -6584,7 +6520,7 @@
       </c>
       <c r="O86" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6532,7 @@
       </c>
       <c r="B87" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C87" s="27" t="n">
@@ -6607,7 +6543,7 @@
       </c>
       <c r="E87" s="27" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="F87" s="27" t="inlineStr">
@@ -6625,7 +6561,7 @@
       </c>
       <c r="I87" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J87" s="27" t="inlineStr">
@@ -6634,7 +6570,7 @@
         </is>
       </c>
       <c r="K87" s="27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L87" s="27" t="n">
         <v>0</v>
@@ -6647,11 +6583,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O87" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
+      <c r="O87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="27" t="inlineStr">
@@ -6661,7 +6593,7 @@
       </c>
       <c r="B88" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C88" s="27" t="n">
@@ -6672,7 +6604,7 @@
       </c>
       <c r="E88" s="27" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="F88" s="27" t="inlineStr">
@@ -6690,7 +6622,7 @@
       </c>
       <c r="I88" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J88" s="27" t="inlineStr">
@@ -6714,7 +6646,7 @@
       </c>
       <c r="O88" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6658,7 @@
       </c>
       <c r="B89" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C89" s="27" t="n">
@@ -6737,12 +6669,12 @@
       </c>
       <c r="E89" s="27" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="F89" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G89" s="27" t="n">
@@ -6760,7 +6692,7 @@
       </c>
       <c r="J89" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K89" s="27" t="n">
@@ -6791,7 +6723,7 @@
       </c>
       <c r="B90" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C90" s="27" t="n">
@@ -6802,7 +6734,7 @@
       </c>
       <c r="E90" s="27" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="F90" s="27" t="inlineStr">
@@ -6820,7 +6752,7 @@
       </c>
       <c r="I90" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J90" s="27" t="inlineStr">
@@ -6844,7 +6776,7 @@
       </c>
       <c r="O90" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -6856,7 +6788,7 @@
       </c>
       <c r="B91" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C91" s="27" t="n">
@@ -6867,12 +6799,12 @@
       </c>
       <c r="E91" s="27" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="F91" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G91" s="27" t="n">
@@ -6885,16 +6817,16 @@
       </c>
       <c r="I91" s="27" t="inlineStr">
         <is>
-          <t>HBKLD</t>
+          <t>HBKLR</t>
         </is>
       </c>
       <c r="J91" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K91" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" s="27" t="n">
         <v>0</v>
@@ -6904,12 +6836,12 @@
       </c>
       <c r="N91" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O91" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6853,7 @@
       </c>
       <c r="B92" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C92" s="27" t="n">
@@ -6932,7 +6864,7 @@
       </c>
       <c r="E92" s="27" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="F92" s="27" t="inlineStr">
@@ -6950,7 +6882,7 @@
       </c>
       <c r="I92" s="27" t="inlineStr">
         <is>
-          <t>HBETG</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J92" s="27" t="inlineStr">
@@ -6969,7 +6901,7 @@
       </c>
       <c r="N92" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O92" s="27" t="inlineStr">
@@ -6986,7 +6918,7 @@
       </c>
       <c r="B93" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C93" s="27" t="n">
@@ -6997,7 +6929,7 @@
       </c>
       <c r="E93" s="27" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="F93" s="27" t="inlineStr">
@@ -7015,7 +6947,7 @@
       </c>
       <c r="I93" s="27" t="inlineStr">
         <is>
-          <t>HBETG</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J93" s="27" t="inlineStr">
@@ -7039,7 +6971,7 @@
       </c>
       <c r="O93" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -7051,7 +6983,7 @@
       </c>
       <c r="B94" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C94" s="27" t="n">
@@ -7062,7 +6994,7 @@
       </c>
       <c r="E94" s="27" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="F94" s="27" t="inlineStr">
@@ -7080,12 +7012,12 @@
       </c>
       <c r="I94" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J94" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K94" s="27" t="n">
@@ -7099,7 +7031,7 @@
       </c>
       <c r="N94" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O94" s="27" t="inlineStr">
@@ -7116,7 +7048,7 @@
       </c>
       <c r="B95" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C95" s="27" t="n">
@@ -7127,12 +7059,12 @@
       </c>
       <c r="E95" s="27" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="F95" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G95" s="27" t="n">
@@ -7145,16 +7077,16 @@
       </c>
       <c r="I95" s="27" t="inlineStr">
         <is>
-          <t>HBSGT</t>
+          <t>HBETG</t>
         </is>
       </c>
       <c r="J95" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K95" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L95" s="27" t="n">
         <v>0</v>
@@ -7164,12 +7096,12 @@
       </c>
       <c r="N95" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O95" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>NW</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7113,7 @@
       </c>
       <c r="B96" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C96" s="27" t="n">
@@ -7192,12 +7124,12 @@
       </c>
       <c r="E96" s="27" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F96" s="27" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G96" s="27" t="n">
@@ -7210,16 +7142,16 @@
       </c>
       <c r="I96" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGT</t>
         </is>
       </c>
       <c r="J96" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K96" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L96" s="27" t="n">
         <v>0</v>
@@ -7229,12 +7161,12 @@
       </c>
       <c r="N96" s="27" t="inlineStr">
         <is>
-          <t>LSZT</t>
+          <t>LSZZ</t>
         </is>
       </c>
       <c r="O96" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7178,7 @@
       </c>
       <c r="B97" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C97" s="27" t="n">
@@ -7257,7 +7189,7 @@
       </c>
       <c r="E97" s="27" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F97" s="27" t="inlineStr">
@@ -7275,12 +7207,12 @@
       </c>
       <c r="I97" s="27" t="inlineStr">
         <is>
-          <t>HBKLR</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J97" s="27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K97" s="27" t="n">
@@ -7299,7 +7231,7 @@
       </c>
       <c r="O97" s="27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7243,7 @@
       </c>
       <c r="B98" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C98" s="27" t="n">
@@ -7322,12 +7254,12 @@
       </c>
       <c r="E98" s="27" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F98" s="27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G98" s="27" t="n">
@@ -7340,16 +7272,16 @@
       </c>
       <c r="I98" s="27" t="inlineStr">
         <is>
-          <t>HBWYC</t>
+          <t>HBSGW</t>
         </is>
       </c>
       <c r="J98" s="27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K98" s="27" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L98" s="27" t="n">
         <v>0</v>
@@ -7362,11 +7294,7 @@
           <t>LSZT</t>
         </is>
       </c>
-      <c r="O98" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
+      <c r="O98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="27" t="inlineStr">
@@ -7376,7 +7304,7 @@
       </c>
       <c r="B99" s="27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C99" s="27" t="n">
@@ -7387,12 +7315,12 @@
       </c>
       <c r="E99" s="27" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="F99" s="27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G99" s="27" t="n">
@@ -7424,2348 +7352,12 @@
       </c>
       <c r="N99" s="27" t="inlineStr">
         <is>
-          <t>LSZZ</t>
+          <t>LSZT</t>
         </is>
       </c>
       <c r="O99" s="27" t="inlineStr">
         <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B100" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C100" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E100" s="27" t="inlineStr">
-        <is>
-          <t>1509</t>
-        </is>
-      </c>
-      <c r="F100" s="27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G100" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H100" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I100" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J100" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K100" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L100" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O100" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B101" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C101" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E101" s="27" t="inlineStr">
-        <is>
-          <t>1514</t>
-        </is>
-      </c>
-      <c r="F101" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G101" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H101" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I101" s="27" t="inlineStr">
-        <is>
-          <t>HBKLR</t>
-        </is>
-      </c>
-      <c r="J101" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K101" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O101" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B102" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C102" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D102" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E102" s="27" t="inlineStr">
-        <is>
-          <t>1528</t>
-        </is>
-      </c>
-      <c r="F102" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G102" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H102" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I102" s="27" t="inlineStr">
-        <is>
-          <t>HBETG</t>
-        </is>
-      </c>
-      <c r="J102" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K102" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L102" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O102" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B103" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C103" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D103" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E103" s="27" t="inlineStr">
-        <is>
-          <t>1529</t>
-        </is>
-      </c>
-      <c r="F103" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G103" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I103" s="27" t="inlineStr">
-        <is>
-          <t>HBKFW</t>
-        </is>
-      </c>
-      <c r="J103" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K103" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O103" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B104" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C104" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E104" s="27" t="inlineStr">
-        <is>
-          <t>1537</t>
-        </is>
-      </c>
-      <c r="F104" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G104" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H104" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I104" s="27" t="inlineStr">
-        <is>
-          <t>HBETG</t>
-        </is>
-      </c>
-      <c r="J104" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K104" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L104" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O104" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B105" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C105" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E105" s="27" t="inlineStr">
-        <is>
-          <t>1539</t>
-        </is>
-      </c>
-      <c r="F105" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G105" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H105" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I105" s="27" t="inlineStr">
-        <is>
-          <t>HBKLD</t>
-        </is>
-      </c>
-      <c r="J105" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K105" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L105" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O105" s="27" t="inlineStr">
-        <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B106" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C106" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E106" s="27" t="inlineStr">
-        <is>
-          <t>1544</t>
-        </is>
-      </c>
-      <c r="F106" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G106" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H106" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I106" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J106" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K106" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L106" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O106" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B107" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C107" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D107" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E107" s="27" t="inlineStr">
-        <is>
-          <t>1602</t>
-        </is>
-      </c>
-      <c r="F107" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G107" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H107" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I107" s="27" t="inlineStr">
-        <is>
-          <t>HBYVC</t>
-        </is>
-      </c>
-      <c r="J107" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K107" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L107" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O107" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B108" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C108" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E108" s="27" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
-      <c r="F108" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G108" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H108" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I108" s="27" t="inlineStr">
-        <is>
-          <t>HBYVC</t>
-        </is>
-      </c>
-      <c r="J108" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K108" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O108" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B109" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C109" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E109" s="27" t="inlineStr">
-        <is>
-          <t>1620</t>
-        </is>
-      </c>
-      <c r="F109" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G109" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H109" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I109" s="27" t="inlineStr">
-        <is>
-          <t>HBKFW</t>
-        </is>
-      </c>
-      <c r="J109" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K109" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O109" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B110" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C110" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E110" s="27" t="inlineStr">
-        <is>
-          <t>1625</t>
-        </is>
-      </c>
-      <c r="F110" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G110" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H110" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I110" s="27" t="inlineStr">
-        <is>
-          <t>HBKFW</t>
-        </is>
-      </c>
-      <c r="J110" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K110" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O110" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B111" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C111" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E111" s="27" t="inlineStr">
-        <is>
-          <t>1651</t>
-        </is>
-      </c>
-      <c r="F111" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G111" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H111" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I111" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J111" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K111" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L111" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O111" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B112" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C112" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E112" s="27" t="inlineStr">
-        <is>
-          <t>1656</t>
-        </is>
-      </c>
-      <c r="F112" s="27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G112" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H112" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I112" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J112" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K112" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L112" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O112" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B113" s="27" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C113" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E113" s="27" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="F113" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G113" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H113" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I113" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J113" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K113" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L113" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O113" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B114" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C114" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E114" s="27" t="inlineStr">
-        <is>
-          <t>0916</t>
-        </is>
-      </c>
-      <c r="F114" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G114" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H114" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I114" s="27" t="inlineStr">
-        <is>
-          <t>HBKLR</t>
-        </is>
-      </c>
-      <c r="J114" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K114" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O114" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B115" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C115" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E115" s="27" t="inlineStr">
-        <is>
-          <t>0920</t>
-        </is>
-      </c>
-      <c r="F115" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G115" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H115" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I115" s="27" t="inlineStr">
-        <is>
-          <t>HBKLR</t>
-        </is>
-      </c>
-      <c r="J115" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K115" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L115" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O115" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B116" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C116" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E116" s="27" t="inlineStr">
-        <is>
-          <t>0927</t>
-        </is>
-      </c>
-      <c r="F116" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G116" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H116" s="27" t="n"/>
-      <c r="I116" s="27" t="inlineStr">
-        <is>
-          <t>JMP803</t>
-        </is>
-      </c>
-      <c r="J116" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K116" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L116" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O116" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B117" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C117" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E117" s="27" t="inlineStr">
-        <is>
-          <t>0948</t>
-        </is>
-      </c>
-      <c r="F117" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G117" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H117" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I117" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J117" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K117" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L117" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O117" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B118" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C118" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E118" s="27" t="inlineStr">
-        <is>
-          <t>0948</t>
-        </is>
-      </c>
-      <c r="F118" s="27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G118" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H118" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I118" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J118" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K118" s="27" t="n">
-        <v>24</v>
-      </c>
-      <c r="L118" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O118" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B119" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C119" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E119" s="27" t="inlineStr">
-        <is>
-          <t>1029</t>
-        </is>
-      </c>
-      <c r="F119" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G119" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H119" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I119" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J119" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K119" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L119" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O119" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B120" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C120" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E120" s="27" t="inlineStr">
-        <is>
-          <t>1041</t>
-        </is>
-      </c>
-      <c r="F120" s="27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G120" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H120" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I120" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J120" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K120" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L120" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O120" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B121" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C121" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E121" s="27" t="inlineStr">
-        <is>
-          <t>1042</t>
-        </is>
-      </c>
-      <c r="F121" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G121" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H121" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I121" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J121" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K121" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O121" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B122" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C122" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D122" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E122" s="27" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
-      <c r="F122" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G122" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H122" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I122" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J122" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K122" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O122" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B123" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C123" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D123" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E123" s="27" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="F123" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G123" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H123" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I123" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J123" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K123" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L123" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O123" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B124" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C124" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E124" s="27" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
-      </c>
-      <c r="F124" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G124" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H124" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I124" s="27" t="inlineStr">
-        <is>
-          <t>HBKLR</t>
-        </is>
-      </c>
-      <c r="J124" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K124" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O124" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B125" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C125" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D125" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E125" s="27" t="inlineStr">
-        <is>
-          <t>1326</t>
-        </is>
-      </c>
-      <c r="F125" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G125" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H125" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I125" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J125" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K125" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L125" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O125" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B126" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C126" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E126" s="27" t="inlineStr">
-        <is>
-          <t>1330</t>
-        </is>
-      </c>
-      <c r="F126" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G126" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H126" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I126" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J126" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K126" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L126" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O126" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B127" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C127" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E127" s="27" t="inlineStr">
-        <is>
-          <t>1356</t>
-        </is>
-      </c>
-      <c r="F127" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G127" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H127" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I127" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J127" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K127" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O127" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B128" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C128" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E128" s="27" t="inlineStr">
-        <is>
-          <t>1415</t>
-        </is>
-      </c>
-      <c r="F128" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G128" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H128" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I128" s="27" t="inlineStr">
-        <is>
-          <t>HBETG</t>
-        </is>
-      </c>
-      <c r="J128" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K128" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O128" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B129" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C129" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E129" s="27" t="inlineStr">
-        <is>
-          <t>1418</t>
-        </is>
-      </c>
-      <c r="F129" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G129" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H129" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I129" s="27" t="inlineStr">
-        <is>
-          <t>HBETG</t>
-        </is>
-      </c>
-      <c r="J129" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K129" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L129" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O129" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B130" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C130" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E130" s="27" t="inlineStr">
-        <is>
-          <t>1543</t>
-        </is>
-      </c>
-      <c r="F130" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G130" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H130" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I130" s="27" t="inlineStr">
-        <is>
-          <t>HBETG</t>
-        </is>
-      </c>
-      <c r="J130" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K130" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L130" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" s="27" t="inlineStr">
-        <is>
-          <t>LSZZ</t>
-        </is>
-      </c>
-      <c r="O130" s="27" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B131" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C131" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D131" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E131" s="27" t="inlineStr">
-        <is>
-          <t>1615</t>
-        </is>
-      </c>
-      <c r="F131" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G131" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H131" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I131" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J131" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K131" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L131" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O131" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B132" s="27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C132" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E132" s="27" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="F132" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G132" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H132" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I132" s="27" t="inlineStr">
-        <is>
-          <t>HBSGT</t>
-        </is>
-      </c>
-      <c r="J132" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K132" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L132" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O132" s="27" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B133" s="27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C133" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E133" s="27" t="inlineStr">
-        <is>
-          <t>0949</t>
-        </is>
-      </c>
-      <c r="F133" s="27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G133" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H133" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I133" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J133" s="27" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K133" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="L133" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O133" s="27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B134" s="27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C134" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D134" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E134" s="27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F134" s="27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G134" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H134" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I134" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J134" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K134" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L134" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O134" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="B135" s="27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C135" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" s="27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E135" s="27" t="inlineStr">
-        <is>
-          <t>1036</t>
-        </is>
-      </c>
-      <c r="F135" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G135" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H135" s="27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I135" s="27" t="inlineStr">
-        <is>
-          <t>HBSGW</t>
-        </is>
-      </c>
-      <c r="J135" s="27" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="K135" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L135" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" s="27" t="inlineStr">
-        <is>
-          <t>LSZT</t>
-        </is>
-      </c>
-      <c r="O135" s="27" t="inlineStr">
-        <is>
-          <t>SW</t>
         </is>
       </c>
     </row>
